--- a/Task_WTP/BoringQs.xlsx
+++ b/Task_WTP/BoringQs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\University Vivikth\Documents\UNI\Fourth Year\Thesis\Otree\Experimental_RET - Copy\Task_WTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5C731B3E-BB8A-461C-B1A0-65D1317F0390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE55F8-901A-4034-BCA9-D5691BE3C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoringQs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>question</t>
   </si>
@@ -40,115 +40,232 @@
     <t>solution</t>
   </si>
   <si>
-    <t>There is not enough information to pick one of the above</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>I used the BDM procedure to determine how much Sally values a chocolate bar. Which of the following is a potential negative outcome for Sally if she lies on one of the questions?</t>
-  </si>
-  <si>
-    <t>There are no negative consequences associated with lying for Sally</t>
-  </si>
-  <si>
-    <t>Sally’s lie will affect the experimental results</t>
-  </si>
-  <si>
-    <t>Sally won’t get her preferred outcome if the question she lied on is randomly selected</t>
-  </si>
-  <si>
-    <t>Sally will spend more time in the experiment</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>I used the BDM procedure to determine how much Sally values a chocolate bar. Which of the following is a potential negative outcome for Sally if she lies about her switch-point?</t>
-  </si>
-  <si>
-    <t>Sally may not always get her preferred outcome</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>I used the BDM procedure to determine how much Simon values an ice-cream in terms of the probability of leaving the experiment right now. Simon stated that his switch-point is 60%. From this, we can infer:</t>
-  </si>
-  <si>
-    <t>Simon prefers an ice-cream to leaving the experiment right now</t>
-  </si>
-  <si>
-    <t>Simon prefers leaving the experiment right now to an ice-cream</t>
-  </si>
-  <si>
-    <t>Simon is indifference between leaving the experiment right now and an ice-cream</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>I used the BDM procedure to determine how much Kriti values a mug in terms of the probability of leaving the experiment right now. Suppose Kriti states that her switch-point for 1 mug is 100%,and her switch point for 2 mugs is also 100%. Kriti also (truthfully) states that she prefers 2 mugs to 1 mug. What can we infer?</t>
-  </si>
-  <si>
-    <t>Kriti prefers 1 mug to 2 mugs</t>
-  </si>
-  <si>
-    <t>Kriti prefers 2 mugs to leaving the experiment right now</t>
-  </si>
-  <si>
-    <t>Kriti prefers leaving the experiment right now to 1 mug</t>
-  </si>
-  <si>
-    <t>Mishika must pick between a toy and some money. She would prefer the toy to $3, and prefer $5 to the toy. Suppose Mishika is given $4. Which of the following can we conclude?</t>
-  </si>
-  <si>
-    <t>She would be happier if she received the toy, as her switch point is $5</t>
-  </si>
-  <si>
-    <t>She would be less happy if she received the toy, as her switch point is $3</t>
-  </si>
-  <si>
-    <t>She would be exactly as happy if she received the toy, as her switch point is $4</t>
-  </si>
-  <si>
-    <t>We cannot determine whether the toy would make Mishika less or more happy as we do not know her switch point</t>
-  </si>
-  <si>
-    <t>I used the BDM procedure to determine how much Christian values a muesli bar in terms of money. Christian is allergic to nuts, and so prefers any amount of money to a muesli bar. What can we infer about Christian’s switch-point?</t>
-  </si>
-  <si>
-    <t>Christian’s switch-point is less than $2</t>
-  </si>
-  <si>
-    <t>Christian’s switch-point is more than $2</t>
-  </si>
-  <si>
-    <t>Christian’s switch-point is equal to $2</t>
-  </si>
-  <si>
-    <t>The question provides insufficient information to pick one of the above</t>
-  </si>
-  <si>
-    <t>I used the BDM procedure to determine how much Borys and Sabi value a coffee in terms of the probability of leaving the experiment right now. Borys stated his switch-point was 25%, while Sabi stated his switch point was 50%. Both Borys and Sabi prefer leaving the experiment right now to not leaving the experiment right now. What can we infer?</t>
-  </si>
-  <si>
-    <t>Borys values coffee more than Sabi</t>
-  </si>
-  <si>
-    <t>Borys and Sabi both value coffee the same</t>
-  </si>
-  <si>
-    <t>Sabi values coffee more than Borys</t>
-  </si>
-  <si>
     <t>How many paragraphs are in the most boring thing ever written?</t>
+  </si>
+  <si>
+    <t>are green or yellow</t>
+  </si>
+  <si>
+    <t>are red or purple</t>
+  </si>
+  <si>
+    <t>blue or tan</t>
+  </si>
+  <si>
+    <t>are black or white</t>
+  </si>
+  <si>
+    <t>In the 2nd paragraph, the author states that teenagers are provided an allowance for:</t>
+  </si>
+  <si>
+    <t>cleaning the toilet</t>
+  </si>
+  <si>
+    <t>mowing the lawn</t>
+  </si>
+  <si>
+    <t>purchasing the groceries</t>
+  </si>
+  <si>
+    <t>vacuuming the house</t>
+  </si>
+  <si>
+    <t>In the 3rd paragraph, the author states that potatoes can be:</t>
+  </si>
+  <si>
+    <t>eaten whole</t>
+  </si>
+  <si>
+    <t>eaten dirty</t>
+  </si>
+  <si>
+    <t>eaten raw</t>
+  </si>
+  <si>
+    <t>eaten clean</t>
+  </si>
+  <si>
+    <t>Eli Whitney</t>
+  </si>
+  <si>
+    <t>Evan Calford</t>
+  </si>
+  <si>
+    <t>Eric Winfred</t>
+  </si>
+  <si>
+    <t>Henry Packer</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>Virginia Slims</t>
+  </si>
+  <si>
+    <t>Marlboro</t>
+  </si>
+  <si>
+    <t>Cows</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Pigs</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>In the 7th paragraph, which of the following branches listed as part of the American government?</t>
+  </si>
+  <si>
+    <t>Executive Branch</t>
+  </si>
+  <si>
+    <t>Judicial Branch</t>
+  </si>
+  <si>
+    <t>Legislative Branch</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>In the 8th paragraph, the author states that the mascot of Toys 'R' Us is:</t>
+  </si>
+  <si>
+    <t>Geoffrey the Giraffe</t>
+  </si>
+  <si>
+    <t>Harry the Hippopotamus</t>
+  </si>
+  <si>
+    <t>Riley the Rhino</t>
+  </si>
+  <si>
+    <t>Gordan the Gorilla</t>
+  </si>
+  <si>
+    <t>In the 9th paragraph, which of the following characters are NOT mentioned by the author?</t>
+  </si>
+  <si>
+    <t>Rudolph the red-nosed reindeer</t>
+  </si>
+  <si>
+    <t>Frosty the Snowman</t>
+  </si>
+  <si>
+    <t>Santa Claus</t>
+  </si>
+  <si>
+    <t>The Grinch</t>
+  </si>
+  <si>
+    <t>In the 10th paragraph, which of the following holidays is mentioned by the author?</t>
+  </si>
+  <si>
+    <t>Anzac Day</t>
+  </si>
+  <si>
+    <t>Australia day</t>
+  </si>
+  <si>
+    <t>Independence Day</t>
+  </si>
+  <si>
+    <t>Canberra Day</t>
+  </si>
+  <si>
+    <t>In the 11th paragraph, the author states that the name of Halloween is derived from:</t>
+  </si>
+  <si>
+    <t>All Hallow's Eve</t>
+  </si>
+  <si>
+    <t>Halley's Comet</t>
+  </si>
+  <si>
+    <t>Hallucination</t>
+  </si>
+  <si>
+    <t>Hallelujah</t>
+  </si>
+  <si>
+    <t>In the 12th paragraph, which of the following people are NOT mentioned by the author?</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>Ben Franklin</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson</t>
+  </si>
+  <si>
+    <t>In the 13th paragraph, the author states that drawings and paintings can be:</t>
+  </si>
+  <si>
+    <t>Very beautiful</t>
+  </si>
+  <si>
+    <t>Very awful</t>
+  </si>
+  <si>
+    <t>Very artistic</t>
+  </si>
+  <si>
+    <t>Very Thoughtful</t>
+  </si>
+  <si>
+    <t>In the 14th paragraph, the author states that boring materials can be found:</t>
+  </si>
+  <si>
+    <t>At your public library</t>
+  </si>
+  <si>
+    <t>At a bookstore</t>
+  </si>
+  <si>
+    <t>On a website</t>
+  </si>
+  <si>
+    <t>In the 6th paragraph, the author states that most of the animals on farms are:</t>
+  </si>
+  <si>
+    <t>In the 5th paragraph, which of the following cigarette brands are NOT listed by the author?</t>
+  </si>
+  <si>
+    <t>In the 1st paragraph, the author states that cars:</t>
+  </si>
+  <si>
+    <t>In the 4th paragraph, the author states that the cotton gin was invented by:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -985,11 +1102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1118,7 @@
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,9 +1138,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>11</v>
@@ -1038,150 +1155,287 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Task_WTP/BoringQs.xlsx
+++ b/Task_WTP/BoringQs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\University Vivikth\Documents\UNI\Fourth Year\Thesis\Otree\Experimental_RET - Copy\Task_WTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE55F8-901A-4034-BCA9-D5691BE3C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F083BFC5-EEEA-4982-82F5-73BFD137BBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>are red or purple</t>
   </si>
   <si>
-    <t>blue or tan</t>
-  </si>
-  <si>
     <t>are black or white</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>In the 4th paragraph, the author states that the cotton gin was invented by:</t>
+  </si>
+  <si>
+    <t>are blue or tan</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1169,10 +1169,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1180,19 +1180,19 @@
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1200,19 +1200,19 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1220,19 +1220,19 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1240,19 +1240,19 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1260,19 +1260,19 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1300,19 +1300,19 @@
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -1320,19 +1320,19 @@
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -1340,19 +1340,19 @@
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -1360,19 +1360,19 @@
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -1380,19 +1380,19 @@
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -1400,19 +1400,19 @@
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -1420,19 +1420,19 @@
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
